--- a/biology/Botanique/Citrullus/Citrullus.xlsx
+++ b/biology/Botanique/Citrullus/Citrullus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citrullus est un genre de plantes herbacées dicotylédones de la famille des Cucurbitaceae, parmi lesquelles Citrullus lanatus, la pastèque, et Citrullus colocynthis, la coloquinte vraie.
 </t>
@@ -511,19 +523,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 décembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 décembre 2019) :
 Citrullus colocynthis (L.) Schrad.
 Citrullus ecirrhosus Cogn.
 Citrullus lanatus (Thunb.) Matsum. &amp; Nakai
-Selon Catalogue of Life                                   (1 décembre 2019)[3] :
+Selon Catalogue of Life                                   (1 décembre 2019) :
 Citrullus colocynthis (L.) Schrader
 Citrullus ecirrhosus Cogn.
 Citrullus lanatus (Thunb.) Matsumura &amp; Nakai
 Citrullus mucosospermus (Fursa) T. B. Fursa
 Citrullus rehmii B. De Winter
-Selon GRIN            (1 décembre 2019)[4] :
+Selon GRIN            (1 décembre 2019) :
 Citrullus amarus Schrad.
 Citrullus colocynthis (L.) Schrad.
 Citrullus ecirrhosus Cogn.
@@ -532,15 +546,15 @@
 Citrullus naudinianus (Sond.) Hook. f.
 Citrullus rehmii De Winter
 Citrullus spp.
-Selon ITIS      (1 décembre 2019)[5] :
+Selon ITIS      (1 décembre 2019) :
 Citrullus colocynthis (L.) Schrad.
 Citrullus lanatus (Thunb.) Matsum. &amp; Nakai
-Selon The Plant List            (1 décembre 2019)[6] :
+Selon The Plant List            (1 décembre 2019) :
 Citrullus colocynthis (L.) Schrad.
 Citrullus ecirrhosus Cogn.
 Citrullus lanatus (Thunb.) Matsum. &amp; Nakai
 Citrullus rehmii De Winter
-Selon Tropicos                                           (1 décembre 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 décembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Citrullus amarus Schrad.
 Citrullus anguria (Duchesne) H. Hara
 Citrullus aquosus Schur
